--- a/examples/sources/data/unsolved/to_schedule/2019-02-04.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-04.xlsx
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>43500</v>
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="2">
         <v>43500</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3154,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="2">
         <v>43500</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="2">
         <v>43500</v>
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" s="2">
         <v>43500</v>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113">
         <v>1</v>
